--- a/data/trans_camb/P2C_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R2-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>10.43209471387793</v>
+        <v>9.953120740261708</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.374417869314732</v>
+        <v>-1.079124771580984</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-16.0659041446228</v>
+        <v>-16.41050389935884</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18.77543686715662</v>
+        <v>17.8290090787496</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.960451577625462</v>
+        <v>5.122545098999732</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-15.47857647300578</v>
+        <v>-16.2565578049162</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>15.7890840390009</v>
+        <v>15.87495828491746</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.433473975225513</v>
+        <v>3.13697965005916</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-14.7038590847725</v>
+        <v>-14.22128652770248</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>21.32440238036487</v>
+        <v>21.03044393285839</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.332193634694084</v>
+        <v>9.81414513329049</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-5.515581797690767</v>
+        <v>-5.626944485258818</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30.41743394873187</v>
+        <v>30.26083552620898</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>17.06847174357768</v>
+        <v>16.9694045905195</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-4.094765737543828</v>
+        <v>-4.688657955327429</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>24.26759973086899</v>
+        <v>24.38642552491506</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>11.56688449360809</v>
+        <v>11.12569484180745</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-6.771908632212827</v>
+        <v>-6.405054551664511</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.213100928761623</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.5900772520312586</v>
+        <v>-0.5900772520312585</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.162711069013378</v>
@@ -769,7 +769,7 @@
         <v>0.3758015484657182</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.5300133628887801</v>
+        <v>-0.5300133628887802</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.4762081308796404</v>
+        <v>0.4676131489553083</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.06764790496166094</v>
+        <v>-0.04918015217526162</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7741000810568744</v>
+        <v>-0.7897769812932415</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.7894056627997496</v>
+        <v>0.749158002618319</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1978301167034613</v>
+        <v>0.2107686997535362</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6739510940025737</v>
+        <v>-0.6860833058867474</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.717805295379808</v>
+        <v>0.7246307178146806</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1561338948653064</v>
+        <v>0.143191394416906</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6786082307927483</v>
+        <v>-0.6726774830775551</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.288300755719305</v>
+        <v>1.283406055886589</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5602916705566897</v>
+        <v>0.5842036008522894</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.3127978373862507</v>
+        <v>-0.3298571215038696</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.673448691014852</v>
+        <v>1.634890735161671</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8922076185338071</v>
+        <v>0.8935193947939173</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2018572915592747</v>
+        <v>-0.2248929810285751</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.344379098960583</v>
+        <v>1.345949762492485</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.625836405275507</v>
+        <v>0.6035860851416309</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.3606083950569678</v>
+        <v>-0.3506372758945391</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>8.415536551550435</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-16.12058211811947</v>
+        <v>-16.12058211811948</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>15.07841667972087</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.265362667474117</v>
+        <v>4.403408964773142</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.921742549087072</v>
+        <v>3.251108096858844</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-21.01756568067025</v>
+        <v>-21.6186711611623</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9.437112424794304</v>
+        <v>9.372766864395249</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6041525813027765</v>
+        <v>0.5575924531414407</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-35.57397899367555</v>
+        <v>-35.70830824184137</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>8.313967380726567</v>
+        <v>8.606408014377481</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>4.097387139703575</v>
+        <v>3.994361496595164</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-25.55978215764803</v>
+        <v>-25.64257321682341</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.63544911044066</v>
+        <v>15.08164203404941</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.47321952928879</v>
+        <v>13.58591712265909</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-10.3025296270759</v>
+        <v>-10.41011679761488</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20.58695371165798</v>
+        <v>20.83195320051282</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>12.29920342898537</v>
+        <v>11.83440105870981</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-23.99711326005401</v>
+        <v>-24.63483323093646</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>16.20537344049932</v>
+        <v>16.37210556562797</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>11.9632914490679</v>
+        <v>12.08336309015825</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-18.11954456405371</v>
+        <v>-17.84894015899677</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.2841291922990136</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.5442704631551212</v>
+        <v>-0.5442704631551213</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.2940787859589879</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1402441126913718</v>
+        <v>0.1408020161675877</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.09384822234557037</v>
+        <v>0.104608432785192</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.673533453345328</v>
+        <v>-0.6783484237908598</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1762780099096618</v>
+        <v>0.1732477092675668</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0123132474421966</v>
+        <v>0.0115383290138965</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6553799419245754</v>
+        <v>-0.6634491817629612</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1980273347699205</v>
+        <v>0.2034706178946147</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1000071834029927</v>
+        <v>0.09455005053031583</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.6212893592023991</v>
+        <v>-0.6278986019987028</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5431034106857145</v>
+        <v>0.5681805183625364</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5002722164452087</v>
+        <v>0.5237507380424871</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.3675736336468055</v>
+        <v>-0.3607145232888326</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4299992859086035</v>
+        <v>0.4366482704472851</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2565783585736423</v>
+        <v>0.2448329865740329</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.4953686040978479</v>
+        <v>-0.4989207645320282</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4275884820107346</v>
+        <v>0.4388498886214968</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3201597972393814</v>
+        <v>0.3177841734510461</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.469672012839107</v>
+        <v>-0.4693238547296541</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>3.466096237397287</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-34.7668011729128</v>
+        <v>-34.76680117291281</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>13.53685871807429</v>
+        <v>13.95319023087051</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.335539506631232</v>
+        <v>-4.955241211415275</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-40.10623670061027</v>
+        <v>-40.23387019618572</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17.9882696944389</v>
+        <v>18.20736336828786</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.92709336682216</v>
+        <v>1.440237687862972</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-39.80595390707671</v>
+        <v>-39.49139736776302</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>16.91127185720161</v>
+        <v>16.91770331393763</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.6480327239003308</v>
+        <v>-0.5394934219295693</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-38.05197868332811</v>
+        <v>-38.32598361568346</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>24.53343435081128</v>
+        <v>24.48525309364033</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.155185857755445</v>
+        <v>6.103910743908681</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-29.43188824053122</v>
+        <v>-29.66901084172605</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>27.59471655181077</v>
+        <v>27.61950440551552</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>11.82088782670027</v>
+        <v>12.07288432122326</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-30.09857760368104</v>
+        <v>-30.39833932186986</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>24.42327132314843</v>
+        <v>24.0946777585982</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>7.397112684874189</v>
+        <v>7.044851208817342</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-31.06958331953212</v>
+        <v>-31.11153778649512</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.1155200183486028</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.5911547910822788</v>
+        <v>-0.5911547910822789</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.363296809622345</v>
@@ -1197,7 +1197,7 @@
         <v>0.06060991696137399</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.6079499205380298</v>
+        <v>-0.6079499205380299</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2329120235221963</v>
+        <v>0.2429420060318958</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.09198454635939599</v>
+        <v>-0.08643799282820937</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6932546131186668</v>
+        <v>-0.6932117849285085</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2891181110513879</v>
+        <v>0.2932004210713878</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.03289834196553313</v>
+        <v>0.02263483233135588</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6462321974798148</v>
+        <v>-0.6477082580832859</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2825160504136603</v>
+        <v>0.284300856107906</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.01132697487984298</v>
+        <v>-0.009089118099958228</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.6521876847037008</v>
+        <v>-0.6498994749380052</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4741338498321316</v>
+        <v>0.4746204512901074</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1178155248810251</v>
+        <v>0.1140279059253622</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.5527067439979531</v>
+        <v>-0.5588896904887637</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4904029565318294</v>
+        <v>0.496332644610255</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2104076283349508</v>
+        <v>0.2148505316288695</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.5326220004267227</v>
+        <v>-0.5354506426495038</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.442031956816567</v>
+        <v>0.4357159965540356</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.133561072091966</v>
+        <v>0.1272152818428014</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.5640449944252678</v>
+        <v>-0.5599996786882607</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>14.52148961476054</v>
+        <v>14.19407199820315</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-7.183928675501898</v>
+        <v>-7.449334090339366</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-22.36727314704711</v>
+        <v>-22.9078953754839</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13.81882107341684</v>
+        <v>13.71973396501908</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05712982318460005</v>
+        <v>0.9200087020733908</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-14.62607023435421</v>
+        <v>-14.86802808915687</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>15.48627513287435</v>
+        <v>15.741697877456</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.416518752423924</v>
+        <v>-1.913117154772224</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-16.98212788839749</v>
+        <v>-17.20285346251353</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>26.45986798250805</v>
+        <v>25.7001272230791</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.55751491564989</v>
+        <v>3.930186295994302</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-12.31533327166838</v>
+        <v>-12.70710115772816</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24.73842720197555</v>
+        <v>25.66943439676989</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>11.0811158153082</v>
+        <v>11.22812969124913</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-5.798071426416674</v>
+        <v>-6.100035792583382</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>23.77390395889977</v>
+        <v>24.25019557593126</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.141155841346101</v>
+        <v>6.242427224736645</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-10.26986657710959</v>
+        <v>-10.60230693988314</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.04109355878041136</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.5444296271429969</v>
+        <v>-0.544429627142997</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.7738476788210641</v>
@@ -1411,7 +1411,7 @@
         <v>0.07770526902671279</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.4794407303646981</v>
+        <v>-0.479440730364698</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.407898445775861</v>
+        <v>0.4011589287652268</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2019086517848352</v>
+        <v>-0.2169095207444452</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6335209127167331</v>
+        <v>-0.6391628003726428</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.4835885309813988</v>
+        <v>0.462141197156425</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.001942296986916023</v>
+        <v>0.02966020839816653</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5096588462157524</v>
+        <v>-0.5138356949823212</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5017017117016674</v>
+        <v>0.4952372547942894</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.04681715953938496</v>
+        <v>-0.06235746967113485</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5543957412695215</v>
+        <v>-0.5543879131564849</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.919664477810233</v>
+        <v>0.8856812389620198</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1526723811038942</v>
+        <v>0.1364969003559953</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.4236487763663361</v>
+        <v>-0.4271012349449856</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.130937387972441</v>
+        <v>1.130752315221032</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4996188591415986</v>
+        <v>0.4962942861669448</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.261595880939308</v>
+        <v>-0.2596039618003219</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8883822817257923</v>
+        <v>0.9045101583583738</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2276664850708129</v>
+        <v>0.2362654029441867</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.391551246307061</v>
+        <v>-0.4006938105723049</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>1.119558107663086</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-3.247423982039928</v>
+        <v>-3.247423982039926</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.741829523845128</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>9.167490156890356</v>
+        <v>9.336809574097549</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.606545412980453</v>
+        <v>-3.482892879097844</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.40687323848177</v>
+        <v>-7.289132143786009</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.7988609072828655</v>
+        <v>-1.084554757144796</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-8.877696314213706</v>
+        <v>-8.871770047201288</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-12.85041437603208</v>
+        <v>-12.19859732834638</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>6.201502774951784</v>
+        <v>5.585440750345717</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.746378952480232</v>
+        <v>-5.16939894886526</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-8.762998825622194</v>
+        <v>-8.630008121012557</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>19.98630142431178</v>
+        <v>20.40926181520584</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.638258239217886</v>
+        <v>5.874007433637344</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3877862356656372</v>
+        <v>0.6204059127843325</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.54778884816754</v>
+        <v>10.72652471482507</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.309426375459068</v>
+        <v>0.9450596920796271</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-3.791005846529316</v>
+        <v>-3.823000036778744</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>13.90320107044963</v>
+        <v>13.88705040626825</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.204126625818666</v>
+        <v>1.948552735675915</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-3.129842761860339</v>
+        <v>-2.793276548393674</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.09507465332732284</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.2757764042669889</v>
+        <v>-0.2757764042669888</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2535091099874341</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.6158306022922931</v>
+        <v>0.6469519391849637</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2527315345761655</v>
+        <v>-0.2499933963904956</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4989882303159496</v>
+        <v>-0.4992196165117633</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.04356251447496786</v>
+        <v>-0.05167776841439388</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4111603217800638</v>
+        <v>-0.4168783309176015</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.5659237377731449</v>
+        <v>-0.565392237252786</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3556456241761039</v>
+        <v>0.3233569674259605</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.276080031927897</v>
+        <v>-0.2950707403622674</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5031088349946347</v>
+        <v>-0.4953067031744756</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.218495758923439</v>
+        <v>2.230499288102456</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.589780955833775</v>
+        <v>0.6436846854466531</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.06188704258293474</v>
+        <v>0.07442156885399669</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.6441478824874333</v>
+        <v>0.6642109191477</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.07500710644950326</v>
+        <v>0.06335816087570098</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.2345125317266626</v>
+        <v>-0.2434978287921196</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.062641962307111</v>
+        <v>1.053449436993828</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1755504268114321</v>
+        <v>0.1465440029046248</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.2272566837116312</v>
+        <v>-0.2022914870978869</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-0.6023315506961335</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-5.54115964599392</v>
+        <v>-5.541159645993924</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>10.53131872592143</v>
@@ -1734,7 +1734,7 @@
         <v>0.02848141915513525</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-3.989613508913512</v>
+        <v>-3.989613508913509</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>7.182966531273147</v>
+        <v>6.902578256487877</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.265930787398802</v>
+        <v>-4.1696919663735</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-6.636976018891487</v>
+        <v>-6.400265306527669</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2.578706791978276</v>
+        <v>2.427369079814562</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-5.528092494085434</v>
+        <v>-5.673343951802599</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-10.21096070744098</v>
+        <v>-10.53622201771661</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>6.017051536182362</v>
+        <v>6.38174979066401</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.676256971430644</v>
+        <v>-3.651198449205766</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-7.053246944997794</v>
+        <v>-7.187657221276175</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>19.47574734330174</v>
+        <v>19.25142385589637</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.466520433613281</v>
+        <v>5.314478994831898</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.063121615005379</v>
+        <v>1.717584697978642</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>14.56749055991584</v>
+        <v>14.03277337230569</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>4.959275649252154</v>
+        <v>5.165074397314216</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-1.021507269849784</v>
+        <v>-1.591360300157761</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>14.65489229829735</v>
+        <v>14.97789072880338</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>3.899096269211823</v>
+        <v>3.900741643468846</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-1.020683628455173</v>
+        <v>-1.162033374844757</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.03447695027503056</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.3171713076629387</v>
+        <v>-0.3171713076629389</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.7377325578269953</v>
@@ -1839,7 +1839,7 @@
         <v>0.001995160411596251</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.2794776091457036</v>
+        <v>-0.2794776091457035</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.514554043021341</v>
+        <v>0.5261744308382466</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3201621361808826</v>
+        <v>-0.3122491244831063</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4788498104637495</v>
+        <v>-0.4672154420261593</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.1185513451933826</v>
+        <v>0.1185498036551098</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2844018490469401</v>
+        <v>-0.2873142869412066</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.4932747426241041</v>
+        <v>-0.5026477972766089</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3635697913888215</v>
+        <v>0.3896540281428182</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2273906021940078</v>
+        <v>-0.2331383911082786</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.4269181361755496</v>
+        <v>-0.4314654735999127</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.272085588615268</v>
+        <v>2.3556279191549</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.6782851500808456</v>
+        <v>0.7080069247813099</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.2742089708663834</v>
+        <v>0.2391564612663663</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.012544383563984</v>
+        <v>0.9592203346756528</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3374936430915061</v>
+        <v>0.3442679196984894</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.06669076038551905</v>
+        <v>-0.1063630532705625</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.166039041712323</v>
+        <v>1.19408584229862</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.322983065316899</v>
+        <v>0.3160594693674506</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.08198036732270628</v>
+        <v>-0.091267677654867</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>14.08485458017709</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>8.738421744959494</v>
+        <v>8.738421744959487</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>20.41592525835188</v>
@@ -1948,7 +1948,7 @@
         <v>10.47107542390458</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>4.676280607846584</v>
+        <v>4.676280607846572</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>6.650659780253728</v>
+        <v>6.302637306256745</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.829405938066808</v>
+        <v>-3.07534594795021</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-8.20075381778133</v>
+        <v>-8.36020287171924</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>15.92205854947531</v>
+        <v>16.57902117428845</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>7.587650414209138</v>
+        <v>6.262851272986183</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>2.76183618448399</v>
+        <v>2.431028337871006</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>14.89702832039326</v>
+        <v>15.34286717453178</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>4.939018713738614</v>
+        <v>4.92003051384747</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.08661755183549627</v>
+        <v>-0.06909627035267879</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>22.91164240382608</v>
+        <v>23.39784840976909</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>11.84514603619247</v>
+        <v>11.47785652226294</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.035791580897163</v>
+        <v>4.985915647660121</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>30.87584810595092</v>
+        <v>30.98792305846675</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>21.49372584491637</v>
+        <v>21.06109038728343</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>14.23087607216763</v>
+        <v>14.11859034822889</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>25.57382706073137</v>
+        <v>26.0715671812681</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>15.7982822533993</v>
+        <v>15.69830682477405</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>9.241518923523293</v>
+        <v>8.895811135769421</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.6221175417849669</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3859695834350707</v>
+        <v>0.3859695834350705</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.9102898288557599</v>
@@ -2053,7 +2053,7 @@
         <v>0.4668763886497165</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.2085024616974824</v>
+        <v>0.2085024616974819</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.2686155363412876</v>
+        <v>0.2574008471692434</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1102392027789941</v>
+        <v>-0.1298935399247745</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.305552463413776</v>
+        <v>-0.3117969838014162</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.5894467731448165</v>
+        <v>0.6163783685092439</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.2720874626480227</v>
+        <v>0.2320106419315653</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1017574077606183</v>
+        <v>0.07947637631496748</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.5862283432141248</v>
+        <v>0.5785125043717639</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.201765382358873</v>
+        <v>0.1879855439924676</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.01425312557582553</v>
+        <v>-0.005056476635217898</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.297952324716131</v>
+        <v>1.26122871030654</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.6609462645056114</v>
+        <v>0.6081073562229617</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.2752839378669806</v>
+        <v>0.286666120989482</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.634217601706233</v>
+        <v>1.66256311387858</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.134993647813737</v>
+        <v>1.118868688636564</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.7754221290953236</v>
+        <v>0.7565146328116893</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.264691649448747</v>
+        <v>1.31705583746279</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.7982540703258936</v>
+        <v>0.8086752776577852</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4966092662936161</v>
+        <v>0.4651871492399008</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>4.220076965555069</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-16.50307536784855</v>
+        <v>-16.50307536784856</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>16.36414956668145</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>13.36998397612792</v>
+        <v>13.12765040864703</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.008905682211989736</v>
+        <v>0.03109339426977764</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-17.63395444958776</v>
+        <v>-17.63402368711197</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>14.73067234721598</v>
+        <v>14.84421599456708</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>2.015604481004652</v>
+        <v>1.966830819942791</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-18.2820680128144</v>
+        <v>-18.53094612914369</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>14.78501677506542</v>
+        <v>14.53707123169209</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>1.526808707781984</v>
+        <v>1.498308480685782</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-17.4952749184893</v>
+        <v>-17.40081138520693</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>18.15186422863604</v>
+        <v>17.90881990327307</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>4.375441613737372</v>
+        <v>4.342373671812164</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-13.68718442543779</v>
+        <v>-13.43139142887372</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>19.32508673112306</v>
+        <v>19.57900559351914</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>6.594441087697191</v>
+        <v>6.660406441364739</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-14.15683740553921</v>
+        <v>-14.53173179241005</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>18.13838740976098</v>
+        <v>18.06062273761895</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>4.878936217008345</v>
+        <v>4.838371445581343</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-14.47334592846571</v>
+        <v>-14.5352704517748</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>0.1222056784668411</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.4778987536432474</v>
+        <v>-0.4778987536432475</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.5131819505420775</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.4458402630335976</v>
+        <v>0.4298996021854449</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.0005846717767144754</v>
+        <v>0.001031122275758873</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.5841713789684299</v>
+        <v>-0.5842907397390927</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.4119068664912525</v>
+        <v>0.4180719647960167</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.05748809963382009</v>
+        <v>0.054310117680966</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.5157600692119817</v>
+        <v>-0.517745602644003</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4524384028759598</v>
+        <v>0.4410353562019593</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.04677055920311252</v>
+        <v>0.04645867143807445</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.5341327388532603</v>
+        <v>-0.5310463179007588</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.6501368714342169</v>
+        <v>0.6433994111499476</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1572958154084788</v>
+        <v>0.1543313329250214</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.4856664342456403</v>
+        <v>-0.4827150051527462</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.5772828757869272</v>
+        <v>0.589520179089516</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1992784254456104</v>
+        <v>0.1991400012019419</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.4319752993384146</v>
+        <v>-0.4350037398256423</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.5873868954382596</v>
+        <v>0.5804612278333221</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1574388214886575</v>
+        <v>0.1566014950447363</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.4666849794708889</v>
+        <v>-0.4676668782409984</v>
       </c>
     </row>
     <row r="52">
